--- a/data/gtmpinut17-19.xlsx
+++ b/data/gtmpinut17-19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Statistics\guana\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunnigan_S\Desktop\OPEN_PROJECTS\guana\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E700E0-13FC-4476-9CE8-983F0BB39B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08ABC23-2E60-40A0-9DCF-7A07FDC0418F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5EBCB958-4982-46BD-AD67-9D2AE092B963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EBCB958-4982-46BD-AD67-9D2AE092B963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="76">
   <si>
     <t>Station Code</t>
   </si>
@@ -228,6 +228,36 @@
   </si>
   <si>
     <t>F_TKNF</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>UJQ</t>
+  </si>
+  <si>
+    <t>BJQ</t>
   </si>
 </sst>
 </file>
@@ -640,11 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A055C7B4-89DD-432D-B9E9-EE3CDFACCE6F}">
-  <dimension ref="A1:BA61"/>
+  <dimension ref="A1:BA73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U52" sqref="U52"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AV74" sqref="AV74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7645,6 +7677,1712 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="20">
+        <v>43661.46875</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>66</v>
+      </c>
+      <c r="J62">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N62">
+        <v>0.01</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>60</v>
+      </c>
+      <c r="R62">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S62" t="s">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="U62" t="s">
+        <v>60</v>
+      </c>
+      <c r="V62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W62" t="s">
+        <v>60</v>
+      </c>
+      <c r="X62">
+        <v>0.49</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z62">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB62">
+        <v>11</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF62">
+        <v>2.7</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH62">
+        <v>18</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN62" s="31">
+        <v>29.6</v>
+      </c>
+      <c r="AO62" s="31"/>
+      <c r="AP62" s="31">
+        <v>33.92</v>
+      </c>
+      <c r="AR62" s="31">
+        <v>4.22</v>
+      </c>
+      <c r="AT62" s="31">
+        <v>7.54</v>
+      </c>
+      <c r="AV62">
+        <v>1</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX62">
+        <v>5.2</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="20">
+        <v>43661.473611111112</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M63" t="s">
+        <v>67</v>
+      </c>
+      <c r="N63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>67</v>
+      </c>
+      <c r="R63">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S63" t="s">
+        <v>60</v>
+      </c>
+      <c r="T63">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U63" t="s">
+        <v>60</v>
+      </c>
+      <c r="V63">
+        <v>0.54</v>
+      </c>
+      <c r="W63" t="s">
+        <v>60</v>
+      </c>
+      <c r="X63">
+        <v>0.51</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z63">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB63">
+        <v>10</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD63">
+        <v>12</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF63">
+        <v>2.5</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH63">
+        <v>17</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN63" s="31">
+        <v>29.6</v>
+      </c>
+      <c r="AO63" s="31"/>
+      <c r="AP63" s="31">
+        <v>33.92</v>
+      </c>
+      <c r="AR63" s="31">
+        <v>4.22</v>
+      </c>
+      <c r="AT63" s="31">
+        <v>7.54</v>
+      </c>
+      <c r="AV63">
+        <v>1</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX63">
+        <v>5.3</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="20">
+        <v>43690.451388888891</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K64" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>60</v>
+      </c>
+      <c r="R64">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S64" t="s">
+        <v>60</v>
+      </c>
+      <c r="T64">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="U64" t="s">
+        <v>60</v>
+      </c>
+      <c r="V64">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W64" t="s">
+        <v>60</v>
+      </c>
+      <c r="X64">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z64">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB64">
+        <v>12</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD64">
+        <v>14</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF64">
+        <v>2.8</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH64">
+        <v>12</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ64">
+        <v>4</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN64" s="31">
+        <v>31</v>
+      </c>
+      <c r="AP64" s="31">
+        <v>28.86</v>
+      </c>
+      <c r="AR64" s="31">
+        <v>4.33</v>
+      </c>
+      <c r="AT64" s="31">
+        <v>7.37</v>
+      </c>
+      <c r="AV64">
+        <v>0.9</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="20">
+        <v>43690.453472222223</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N65">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>70</v>
+      </c>
+      <c r="P65">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>67</v>
+      </c>
+      <c r="R65">
+        <v>0.02</v>
+      </c>
+      <c r="S65" t="s">
+        <v>60</v>
+      </c>
+      <c r="T65">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="U65" t="s">
+        <v>60</v>
+      </c>
+      <c r="V65">
+        <v>0.51</v>
+      </c>
+      <c r="W65" t="s">
+        <v>60</v>
+      </c>
+      <c r="X65">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z65">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB65">
+        <v>8.9</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD65">
+        <v>12</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF65">
+        <v>3.8</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH65">
+        <v>14</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN65" s="31">
+        <v>31</v>
+      </c>
+      <c r="AP65" s="31">
+        <v>28.86</v>
+      </c>
+      <c r="AR65" s="31">
+        <v>4.33</v>
+      </c>
+      <c r="AT65" s="31">
+        <v>7.37</v>
+      </c>
+      <c r="AV65">
+        <v>0.9</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX65">
+        <v>6.9</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="20">
+        <v>43719.420138888891</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66">
+        <v>0.08</v>
+      </c>
+      <c r="I66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L66">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>72</v>
+      </c>
+      <c r="N66">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>72</v>
+      </c>
+      <c r="R66">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S66" t="s">
+        <v>60</v>
+      </c>
+      <c r="T66">
+        <v>0.746</v>
+      </c>
+      <c r="U66" t="s">
+        <v>60</v>
+      </c>
+      <c r="V66">
+        <v>0.72</v>
+      </c>
+      <c r="W66" t="s">
+        <v>72</v>
+      </c>
+      <c r="X66">
+        <v>0.62</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z66">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB66">
+        <v>5.6</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD66">
+        <v>7.2</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH66">
+        <v>10</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ66">
+        <v>3</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN66" s="31">
+        <v>29.7</v>
+      </c>
+      <c r="AP66" s="31">
+        <v>26.16</v>
+      </c>
+      <c r="AR66" s="31">
+        <v>3.79</v>
+      </c>
+      <c r="AT66" s="31">
+        <v>7.33</v>
+      </c>
+      <c r="AV66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX66">
+        <v>9.4</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="20">
+        <v>43719.422222222223</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <v>0.04</v>
+      </c>
+      <c r="G67" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M67" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>70</v>
+      </c>
+      <c r="P67">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>60</v>
+      </c>
+      <c r="R67">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S67" t="s">
+        <v>60</v>
+      </c>
+      <c r="T67">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="U67" t="s">
+        <v>60</v>
+      </c>
+      <c r="V67">
+        <v>0.69</v>
+      </c>
+      <c r="W67" t="s">
+        <v>60</v>
+      </c>
+      <c r="X67">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z67">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB67">
+        <v>3.3</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD67">
+        <v>4.3</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF67">
+        <v>1.3</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH67">
+        <v>10</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ67">
+        <v>3</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN67" s="31">
+        <v>29.7</v>
+      </c>
+      <c r="AP67" s="31">
+        <v>26.16</v>
+      </c>
+      <c r="AR67" s="31">
+        <v>3.79</v>
+      </c>
+      <c r="AT67" s="31">
+        <v>7.33</v>
+      </c>
+      <c r="AV67">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX67">
+        <v>9.4</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="20">
+        <v>43753.547222222223</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M68" t="s">
+        <v>60</v>
+      </c>
+      <c r="N68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>60</v>
+      </c>
+      <c r="R68">
+        <v>3.9E-2</v>
+      </c>
+      <c r="S68" t="s">
+        <v>60</v>
+      </c>
+      <c r="T68">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="U68" t="s">
+        <v>60</v>
+      </c>
+      <c r="V68">
+        <v>0.52</v>
+      </c>
+      <c r="W68" t="s">
+        <v>60</v>
+      </c>
+      <c r="X68">
+        <v>0.59</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z68">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB68">
+        <v>5.9</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD68">
+        <v>7.1</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF68">
+        <v>1.7</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH68">
+        <v>9</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN68" s="31">
+        <v>26.4</v>
+      </c>
+      <c r="AP68" s="31">
+        <v>30.42</v>
+      </c>
+      <c r="AR68" s="31">
+        <v>4.55</v>
+      </c>
+      <c r="AT68" s="31">
+        <v>7.56</v>
+      </c>
+      <c r="AV68">
+        <v>1</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX68">
+        <v>6.3</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="20">
+        <v>43753.549305555556</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K69" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M69" t="s">
+        <v>60</v>
+      </c>
+      <c r="N69">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>60</v>
+      </c>
+      <c r="R69">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S69" t="s">
+        <v>60</v>
+      </c>
+      <c r="T69">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="U69" t="s">
+        <v>60</v>
+      </c>
+      <c r="V69">
+        <v>0.51</v>
+      </c>
+      <c r="W69" t="s">
+        <v>60</v>
+      </c>
+      <c r="X69">
+        <v>0.46</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z69">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD69">
+        <v>6.1</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF69">
+        <v>1.4</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH69">
+        <v>9</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN69" s="31">
+        <v>26.4</v>
+      </c>
+      <c r="AP69" s="31">
+        <v>30.42</v>
+      </c>
+      <c r="AR69" s="31">
+        <v>4.55</v>
+      </c>
+      <c r="AT69" s="31">
+        <v>7.56</v>
+      </c>
+      <c r="AV69">
+        <v>1</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX69">
+        <v>6.1</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="20">
+        <v>43781.493750000001</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M70" t="s">
+        <v>60</v>
+      </c>
+      <c r="N70">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>60</v>
+      </c>
+      <c r="R70">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S70" t="s">
+        <v>60</v>
+      </c>
+      <c r="T70">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="U70" t="s">
+        <v>60</v>
+      </c>
+      <c r="V70">
+        <v>0.51</v>
+      </c>
+      <c r="W70" t="s">
+        <v>60</v>
+      </c>
+      <c r="X70">
+        <v>0.43</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z70">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB70">
+        <v>4</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF70">
+        <v>1.4</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH70">
+        <v>20</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ70">
+        <v>6</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN70" s="31">
+        <v>20.9</v>
+      </c>
+      <c r="AP70" s="31">
+        <v>29.58</v>
+      </c>
+      <c r="AT70" s="31">
+        <v>7.58</v>
+      </c>
+      <c r="AV70">
+        <v>1.4</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX70">
+        <v>5.7</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="20">
+        <v>43781.495833333334</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M71" t="s">
+        <v>60</v>
+      </c>
+      <c r="N71">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>60</v>
+      </c>
+      <c r="R71">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S71" t="s">
+        <v>60</v>
+      </c>
+      <c r="T71">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="U71" t="s">
+        <v>60</v>
+      </c>
+      <c r="V71">
+        <v>0.51</v>
+      </c>
+      <c r="W71" t="s">
+        <v>60</v>
+      </c>
+      <c r="X71">
+        <v>0.42</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z71">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB71">
+        <v>3.2</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD71">
+        <v>3.6</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF71">
+        <v>1.3</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH71">
+        <v>22</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ71">
+        <v>8</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN71" s="31">
+        <v>20.9</v>
+      </c>
+      <c r="AP71" s="31">
+        <v>29.58</v>
+      </c>
+      <c r="AT71" s="31">
+        <v>7.58</v>
+      </c>
+      <c r="AV71">
+        <v>1.4</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX71">
+        <v>5.7</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="20">
+        <v>43809.440972222219</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72">
+        <v>2E-3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>70</v>
+      </c>
+      <c r="N72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>67</v>
+      </c>
+      <c r="R72">
+        <v>1.9E-2</v>
+      </c>
+      <c r="S72" t="s">
+        <v>60</v>
+      </c>
+      <c r="T72">
+        <v>0.625</v>
+      </c>
+      <c r="U72" t="s">
+        <v>60</v>
+      </c>
+      <c r="V72">
+        <v>0.62</v>
+      </c>
+      <c r="W72" t="s">
+        <v>60</v>
+      </c>
+      <c r="X72">
+        <v>0.45</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z72">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB72">
+        <v>2.9</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD72">
+        <v>3.3</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF72">
+        <v>0.98</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH72">
+        <v>13</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN72" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="AP72" s="31">
+        <v>27.35</v>
+      </c>
+      <c r="AT72" s="31">
+        <v>7.52</v>
+      </c>
+      <c r="AV72">
+        <v>1.3</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX72">
+        <v>5.7</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="20">
+        <v>43809.443055555559</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>60</v>
+      </c>
+      <c r="H73">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>60</v>
+      </c>
+      <c r="J73">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K73" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73">
+        <v>2E-3</v>
+      </c>
+      <c r="M73" t="s">
+        <v>70</v>
+      </c>
+      <c r="N73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>67</v>
+      </c>
+      <c r="P73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>67</v>
+      </c>
+      <c r="R73">
+        <v>0.02</v>
+      </c>
+      <c r="S73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T73">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U73" t="s">
+        <v>60</v>
+      </c>
+      <c r="V73">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W73" t="s">
+        <v>60</v>
+      </c>
+      <c r="X73">
+        <v>0.43</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z73">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB73">
+        <v>4.8</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD73">
+        <v>5.6</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF73">
+        <v>1.3</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH73">
+        <v>13</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ73">
+        <v>11</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN73" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="AP73" s="31">
+        <v>27.35</v>
+      </c>
+      <c r="AT73" s="31">
+        <v>7.52</v>
+      </c>
+      <c r="AV73">
+        <v>1.3</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX73">
+        <v>5.8</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
